--- a/data/elzar_morphine_RNAseq_sample_sheet.xlsx
+++ b/data/elzar_morphine_RNAseq_sample_sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RNA-Seq\ChronicMorphine_ExposureRNAseq\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E7D01E-1126-4B97-8C8F-99B6EB8C0991}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2465472-3673-48F3-AD3A-3A509436FA22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33780" windowHeight="13950" xr2:uid="{3B78C676-4420-41B0-88F2-40019D096411}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>sample_id</t>
   </si>
@@ -148,6 +148,27 @@
   </si>
   <si>
     <t>CeAMor</t>
+  </si>
+  <si>
+    <t>sample_condition</t>
+  </si>
+  <si>
+    <t>dStr_Ctrl</t>
+  </si>
+  <si>
+    <t>dStr_Mor</t>
+  </si>
+  <si>
+    <t>Nac_Ctrl</t>
+  </si>
+  <si>
+    <t>Nac_Mor</t>
+  </si>
+  <si>
+    <t>CeA_Ctrl</t>
+  </si>
+  <si>
+    <t>CeA_Mor</t>
   </si>
 </sst>
 </file>
@@ -499,224 +520,245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2E82CB-85FF-4B56-A0B3-770BEE6771E6}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="50.42578125" customWidth="1"/>
-    <col min="9" max="9" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="50.42578125" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>31</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>26</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>28</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>26</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>19</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>29</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>34</v>
       </c>
     </row>

--- a/data/elzar_morphine_RNAseq_sample_sheet.xlsx
+++ b/data/elzar_morphine_RNAseq_sample_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RNA-Seq\ChronicMorphine_ExposureRNAseq\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2465472-3673-48F3-AD3A-3A509436FA22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC82900-DFAE-4174-96A3-169F720032B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33780" windowHeight="13950" xr2:uid="{3B78C676-4420-41B0-88F2-40019D096411}"/>
   </bookViews>
@@ -159,16 +159,16 @@
     <t>dStr_Mor</t>
   </si>
   <si>
-    <t>Nac_Ctrl</t>
-  </si>
-  <si>
-    <t>Nac_Mor</t>
-  </si>
-  <si>
     <t>CeA_Ctrl</t>
   </si>
   <si>
     <t>CeA_Mor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAc_Ctrl </t>
+  </si>
+  <si>
+    <t>NAc_Mor</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +639,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -671,7 +671,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -703,7 +703,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
@@ -735,7 +735,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
